--- a/REGULAR/MAYORS OFFICE/PAITON, MARY ANN.xlsx
+++ b/REGULAR/MAYORS OFFICE/PAITON, MARY ANN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="289">
   <si>
     <t>PERIOD</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>12/12,13,18-20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1798,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1841,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1905,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1965,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2031,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2094,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2192,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2251,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2316,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2359,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2434,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2620,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2686,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2744,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2810,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2866,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2941,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +2984,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3050,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3106,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3204,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3267,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3333,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3708,12 +3711,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K706"/>
+  <dimension ref="A2:K707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A514" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A520" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="E535" sqref="E535"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,7 +3877,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>168.18400000000005</v>
+        <v>169.43400000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3884,7 +3887,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>202.25</v>
+        <v>202.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15152,33 +15155,38 @@
       <c r="A536" s="40">
         <v>45261</v>
       </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
+      <c r="B536" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H536" s="39"/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H536" s="39">
+        <v>1</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40">
-        <v>45292</v>
+      <c r="A537" s="47" t="s">
+        <v>288</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G537" s="13"/>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
@@ -15186,7 +15194,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15204,7 +15212,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15222,7 +15230,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15240,7 +15248,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15258,7 +15266,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15276,7 +15284,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15294,7 +15302,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15312,7 +15320,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15330,7 +15338,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15348,7 +15356,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15366,7 +15374,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15384,7 +15392,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15402,7 +15410,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15420,7 +15428,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15438,7 +15446,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15456,7 +15464,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15474,7 +15482,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15492,7 +15500,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15510,7 +15518,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15528,7 +15536,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15546,7 +15554,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15564,7 +15572,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15582,7 +15590,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15600,7 +15608,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15618,7 +15626,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15636,7 +15644,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15654,7 +15662,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15672,7 +15680,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15690,7 +15698,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15708,7 +15716,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15726,7 +15734,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15744,7 +15752,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15762,7 +15770,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15780,7 +15788,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15798,7 +15806,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15816,7 +15824,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15834,7 +15842,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15852,7 +15860,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15870,7 +15878,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15888,7 +15896,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15906,7 +15914,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15924,7 +15932,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15942,7 +15950,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15960,7 +15968,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15978,7 +15986,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15996,7 +16004,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16014,7 +16022,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16032,7 +16040,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16050,7 +16058,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16068,7 +16076,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16086,7 +16094,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16104,7 +16112,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16122,7 +16130,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16140,7 +16148,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16158,7 +16166,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16176,7 +16184,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16194,7 +16202,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16212,7 +16220,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16230,7 +16238,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16248,7 +16256,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16266,7 +16274,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16284,7 +16292,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16302,7 +16310,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16320,7 +16328,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16338,7 +16346,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16356,7 +16364,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16374,7 +16382,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16392,7 +16400,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16410,7 +16418,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16428,7 +16436,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16445,7 +16453,9 @@
       <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40"/>
+      <c r="A608" s="40">
+        <v>47423</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
@@ -18013,20 +18023,36 @@
       <c r="K705" s="20"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="53"/>
-      <c r="B706" s="15"/>
-      <c r="C706" s="41"/>
-      <c r="D706" s="42"/>
+      <c r="A706" s="40"/>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
       <c r="E706" s="9"/>
-      <c r="F706" s="15"/>
-      <c r="G706" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H706" s="42"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
       <c r="I706" s="9"/>
-      <c r="J706" s="12"/>
-      <c r="K706" s="15"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="53"/>
+      <c r="B707" s="15"/>
+      <c r="C707" s="41"/>
+      <c r="D707" s="42"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="15"/>
+      <c r="G707" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="42"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="12"/>
+      <c r="K707" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
